--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
@@ -167,31 +167,31 @@
     <t>TC4</t>
   </si>
   <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Nivel das Competencias, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Nivel das Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
   </si>
 </sst>
 </file>
@@ -1114,209 +1114,209 @@
         <v>1.0</v>
       </c>
       <c r="B44" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="C44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="7">
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B49" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="E49" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B52" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D47" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="4">
+      <c r="D52" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F47" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="9">
+      <c r="F52" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B48" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="9">
+      <c r="B53" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F48" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="8">
+      <c r="F53" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B54" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="5">
+      <c r="C54" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B55" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C50" t="s" s="5">
+      <c r="C55" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D55" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E50" t="s" s="5">
+      <c r="E55" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F55" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B52" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B53" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B54" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B55" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,13 +1478,13 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>2</v>
@@ -1493,160 +1493,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="67"/>
+    <row r="68"/>
     <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
-    <row r="71"/>
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s" s="4">
-        <v>2</v>
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s" s="9">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="8">
+      <c r="A74" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E75" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s" s="5">
-        <v>25</v>
+      <c r="A75" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1727,12 +1727,12 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
@@ -167,19 +167,19 @@
     <t>TC4</t>
   </si>
   <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Nivel das Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
@@ -1114,209 +1114,209 @@
         <v>1.0</v>
       </c>
       <c r="B44" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B51" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="7">
+      <c r="C51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="10">
+      <c r="E51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="7">
+      <c r="B52" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="10">
+      <c r="E52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="10">
         <v>3.0</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B53" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="7">
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="10">
+      <c r="E53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B54" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="7">
+      <c r="C54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="10">
+      <c r="E54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B55" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="7">
+      <c r="C55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52">
-      <c r="A52" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F55" t="s" s="5">
-        <v>25</v>
+      <c r="E55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
@@ -1727,8 +1727,8 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B70:D70"/>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
@@ -161,7 +161,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
   </si>
   <si>
     <t>TC4</t>
@@ -176,7 +176,7 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Nivel das Competencias, informando o campo ou a validacao que falhou</t>
@@ -185,13 +185,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,175 +1478,175 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B72" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D72" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F72" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F73" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B74" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B75" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C75" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D75" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E75" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F75" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1731,8 +1731,8 @@
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GT-.xlsx
@@ -149,21 +149,21 @@
     <t>SYSTEM solicita confirmacao de exclusao</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -185,13 +185,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
   </si>
 </sst>
 </file>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,13 +1478,13 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>2</v>
@@ -1493,160 +1493,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="67"/>
+    <row r="68"/>
     <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
-    <row r="71"/>
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s" s="4">
-        <v>2</v>
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s" s="9">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="8">
+      <c r="A74" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E75" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s" s="5">
-        <v>25</v>
+      <c r="A75" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1731,8 +1731,8 @@
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
